--- a/medicine/Psychotrope/Joseph_Ducos/Joseph_Ducos.xlsx
+++ b/medicine/Psychotrope/Joseph_Ducos/Joseph_Ducos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joseph Pierre Louis Édouard Ducos, né à Auch, dans le Gers le 14 octobre 1833 et mort à Châteauneuf-du-Pape, en Vaucluse le 21 juillet 1910, est un homme politique français.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'école polytechnique, il fera une courte carrière dans l'armée, en tant que chef de bataillon de génie. En 1877, il rachète le domaine viticole Château la Nerthe, à Châteauneuf-du-Pape.
-Il mit dès lors sa pugnacité et sa fortune au service d'un vignoble dévasté par le phylloxéra. En 1893, il fit replanter et greffer grenache, mourvèdre, counoise, vaccarèse, cinsault, syrah, les premiers des treize cépages. Ce fut sur son initiative que le nom de la commune fut changé de Châteauneuf-Calcernier en Châteauneuf-du-Pape[1].
+Il mit dès lors sa pugnacité et sa fortune au service d'un vignoble dévasté par le phylloxéra. En 1893, il fit replanter et greffer grenache, mourvèdre, counoise, vaccarèse, cinsault, syrah, les premiers des treize cépages. Ce fut sur son initiative que le nom de la commune fut changé de Châteauneuf-Calcernier en Châteauneuf-du-Pape.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Mandat de député de Vaucluse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 20 août et 3 septembre 1893 : élection pour la circonscription d'Orange, alors qu'il était déjà maire de Châteauneuf-du-Pape.
 </t>
